--- a/Assets/StreamingAssets/门诊信息.xlsx
+++ b/Assets/StreamingAssets/门诊信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13140"/>
+    <workbookView windowWidth="21000" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -30,78 +30,117 @@
     <t>Address</t>
   </si>
   <si>
+    <t>Content</t>
+  </si>
+  <si>
     <t>精诚1</t>
   </si>
   <si>
     <t>上海1</t>
   </si>
   <si>
+    <t>哒哒哒哒</t>
+  </si>
+  <si>
     <t>精诚2</t>
   </si>
   <si>
     <t>上海2</t>
   </si>
   <si>
+    <t>都是三十所所</t>
+  </si>
+  <si>
     <t>精诚3</t>
   </si>
   <si>
     <t>上海3</t>
   </si>
   <si>
+    <t>啊啊啊啊</t>
+  </si>
+  <si>
     <t>精诚4</t>
   </si>
   <si>
     <t>上海4</t>
   </si>
   <si>
+    <t>嘻嘻嘻嘻嘻嘻</t>
+  </si>
+  <si>
     <t>精诚5</t>
   </si>
   <si>
     <t>上海5</t>
   </si>
   <si>
+    <t>去去去去去去去</t>
+  </si>
+  <si>
     <t>精诚6</t>
   </si>
   <si>
     <t>上海6</t>
   </si>
   <si>
+    <t>外单位群无多群无多群无</t>
+  </si>
+  <si>
     <t>精诚7</t>
   </si>
   <si>
     <t>上海7</t>
   </si>
   <si>
+    <t>大萨达撒多</t>
+  </si>
+  <si>
     <t>精诚8</t>
   </si>
   <si>
     <t>上海8</t>
   </si>
   <si>
+    <t>大沙地仨多撒大所大所多</t>
+  </si>
+  <si>
     <t>精诚9</t>
   </si>
   <si>
     <t>上海9</t>
   </si>
   <si>
+    <t>大多数法国队高的高德</t>
+  </si>
+  <si>
     <t>精诚10</t>
   </si>
   <si>
     <t>上海10</t>
   </si>
   <si>
+    <t>而我却二多无群二群翁无群</t>
+  </si>
+  <si>
     <t>精诚11</t>
   </si>
   <si>
     <t>上海11</t>
   </si>
   <si>
+    <t>的撒擦输错三次</t>
+  </si>
+  <si>
     <t>精诚12</t>
   </si>
   <si>
     <t>上海12</t>
   </si>
   <si>
+    <t>大萨达撒大所大无多</t>
+  </si>
+  <si>
     <t>精诚13</t>
   </si>
   <si>
@@ -114,16 +153,25 @@
     <t>上海14</t>
   </si>
   <si>
+    <t>仨大萨达撒大所</t>
+  </si>
+  <si>
     <t>精诚15</t>
   </si>
   <si>
     <t>上海15</t>
   </si>
   <si>
+    <t>大萨达啥多撒多</t>
+  </si>
+  <si>
     <t>精诚16</t>
   </si>
   <si>
     <t>上海16</t>
+  </si>
+  <si>
+    <t>大沙地撒大大说</t>
   </si>
 </sst>
 </file>
@@ -131,8 +179,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -145,6 +193,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -160,6 +223,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -170,9 +279,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,97 +302,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,25 +346,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,36 +508,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,48 +527,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,11 +540,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +590,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,47 +637,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +657,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,19 +1139,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1116,229 +1165,280 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>18569944551</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>18569944552</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>18569944553</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>18569944554</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>18569944555</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>18569944556</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>18569944557</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>18569944558</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>18569944559</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>18569944560</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>18569944561</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>18569944562</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>18569944563</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>18569944564</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>18569944565</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>18569944566</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
